--- a/students.xlsx
+++ b/students.xlsx
@@ -126,10 +126,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -167,7 +167,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8250087</v>
@@ -251,7 +251,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>8250084</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t xml:space="preserve">male</t>
   </si>
@@ -126,7 +126,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,9 +162,6 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>8250082</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>4.5</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t xml:space="preserve">male</t>
   </si>
@@ -123,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,6 +305,34 @@
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>8150080</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8150133</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>8150133</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>8150080</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -126,7 +126,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -189,7 +189,7 @@
         <v>8250084</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>6</v>
@@ -321,7 +321,7 @@
         <v>8150133</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>8150133</v>
       </c>
@@ -330,9 +330,6 @@
       </c>
       <c r="C15" s="0" t="n">
         <v>6.5</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>8150080</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
   <si>
     <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
   </si>
 </sst>
 </file>
@@ -123,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -175,7 +175,7 @@
         <v>8250083</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -189,7 +189,7 @@
         <v>8250084</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>6</v>
@@ -203,7 +203,7 @@
         <v>8250085</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -217,7 +217,7 @@
         <v>8250086</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -231,7 +231,7 @@
         <v>8250087</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -242,52 +242,49 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8250088</v>
+        <v>8254000</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>8250084</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>8250089</v>
+        <v>8250088</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>8250090</v>
+        <v>8250084</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>8250089</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>8250090</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>8250089</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>8250091</v>
+        <v>8250090</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>7</v>
@@ -298,40 +295,463 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>8250092</v>
+        <v>8250091</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>8250089</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>8150080</v>
+        <v>8250092</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>8150133</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
+        <v>8150080</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>8150133</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>8150133</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>6.5</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>8257777</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>8257778</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>8257779</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>8257780</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>8257781</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>8257782</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>8257783</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>8257784</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>8257785</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>8257786</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>8257787</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>8257788</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>8257789</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>8257790</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>8257791</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>8257792</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>8257793</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>8257794</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>8257795</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>8257796</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>8257797</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>8257798</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>8257799</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>8257800</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>8257801</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>8257802</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>8257803</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>8257804</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>8257805</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>8257806</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>8257807</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>8257808</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>8257809</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -123,13 +123,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">

--- a/students.xlsx
+++ b/students.xlsx
@@ -123,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,6 +752,7 @@
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="2">
   <si>
     <t xml:space="preserve">female</t>
   </si>
@@ -125,11 +125,11 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -717,41 +717,558 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>8800000</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>8800001</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>8800002</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>8800003</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>8800004</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>8800005</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>8800006</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>8800007</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>8800008</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>8800009</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>8800010</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>8800011</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>8800012</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>8800013</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>8800014</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>8800015</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>8800016</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>8800017</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>8800018</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>8800019</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>8800020</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>8800021</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>8800022</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>8800023</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>8800024</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>8800025</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>8800026</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>8800027</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>8800028</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>8800029</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>8800030</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>8800031</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>8800032</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>8800033</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>8800034</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>8800035</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>8800036</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>8800037</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>8800038</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>8800039</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>8800040</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>8800041</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>8800042</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>8800043</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>8800044</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>8800045</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>8800046</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>8800047</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>8800048</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>8800049</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
   <si>
     <t xml:space="preserve">female</t>
   </si>
@@ -125,11 +125,11 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -163,6 +163,9 @@
       <c r="A3" s="0" t="n">
         <v>8250082</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="0" t="n">
         <v>4.5</v>
       </c>
@@ -717,556 +720,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>8800000</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>8800001</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>8800002</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>8800003</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>8800004</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>8800005</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>8800006</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>8800007</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>8800008</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>8800009</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>8800010</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>8800011</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>8800012</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>8800013</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>8800014</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>8800015</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>8800016</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>8800017</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>8800018</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>8800019</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>8800020</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>8800021</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>8800022</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>8800023</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>8800024</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>8800025</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>8800026</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>8800027</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>8800028</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>8800029</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>8800030</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>8800031</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>8800032</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>8800033</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>8800034</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>8800035</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>8800036</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>8800037</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>8800038</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>8800039</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>8800040</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>8800041</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>8800042</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>8800043</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>8800044</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>8800045</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>8800046</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>8800047</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>8800048</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>8800049</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="2">
   <si>
     <t xml:space="preserve">female</t>
   </si>
@@ -125,11 +125,11 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -177,9 +177,6 @@
       <c r="A4" s="0" t="n">
         <v>8250083</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -720,17 +717,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>8257810</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>8257811</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>8257812</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>8257813</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>8257814</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>8257815</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>8257816</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>8257817</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>8257818</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>8257819</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>8257820</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
